--- a/config_7.27/act_ty_hlqjd_config.xlsx
+++ b/config_7.27/act_ty_hlqjd_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_7.27\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config_info|时间" sheetId="1" r:id="rId1"/>
@@ -160,14 +165,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,151 +181,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,192 +196,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -528,251 +209,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -793,61 +232,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1105,19 +500,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="20.75" customWidth="1"/>
@@ -1125,7 +520,7 @@
     <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1159,7 +554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1167,31 +562,30 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>1626134400</v>
+        <v>1627344000</v>
       </c>
       <c r="D3" s="2">
-        <v>1626710399</v>
+        <v>1627919999</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="42.625" customWidth="1"/>
     <col min="3" max="3" width="48.875" customWidth="1"/>
@@ -1200,7 +594,7 @@
     <col min="6" max="6" width="60.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1220,7 +614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1240,7 +634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1260,7 +654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1281,27 +675,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="27.25" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1312,7 +705,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1323,7 +716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1334,7 +727,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1345,7 +738,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1356,7 +749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1367,7 +760,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1378,7 +771,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1389,7 +782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1400,7 +793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1412,27 +805,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="44.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1446,7 +838,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1460,7 +852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1474,7 +866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1488,7 +880,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1502,7 +894,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1516,7 +908,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1530,7 +922,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1544,7 +936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1558,7 +950,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1573,7 +965,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>